--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="2031">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9387,6 +9387,22 @@
   </si>
   <si>
     <t>VIP2礼包（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利（冲金鸡CPLand捕鱼非cps）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jyfl_mfcj_limit</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10240,11 +10256,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q449"/>
+  <dimension ref="A1:Q451"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A448" sqref="A448:C449"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14916,6 +14932,17 @@
         <v>360</v>
       </c>
     </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C451" s="3">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14928,7 +14955,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -26703,13 +26730,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I929"/>
+  <dimension ref="A1:I928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C889" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C892" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G917" sqref="A916:G917"/>
+      <selection pane="bottomRight" activeCell="B915" sqref="B915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46355,7 +46382,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1932</v>
+        <v>2028</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -47941,7 +47968,7 @@
         <v>1166</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="E886" s="14">
         <v>2</v>
@@ -48579,7 +48606,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="913" spans="1:7" s="8" customFormat="1">
+    <row r="913" spans="1:8" s="8" customFormat="1">
       <c r="A913" s="8">
         <v>912</v>
       </c>
@@ -48602,7 +48629,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="914" spans="1:7" s="8" customFormat="1">
+    <row r="914" spans="1:8" s="8" customFormat="1">
       <c r="A914" s="8">
         <v>913</v>
       </c>
@@ -48625,7 +48652,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="915" spans="1:7" s="8" customFormat="1">
+    <row r="915" spans="1:8" s="8" customFormat="1">
       <c r="A915" s="8">
         <v>914</v>
       </c>
@@ -48648,7 +48675,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="916" spans="1:7" s="8" customFormat="1">
+    <row r="916" spans="1:8" s="8" customFormat="1">
       <c r="A916" s="8">
         <v>915</v>
       </c>
@@ -48671,7 +48698,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="917" spans="1:7" s="8" customFormat="1">
+    <row r="917" spans="1:8" s="8" customFormat="1">
       <c r="A917" s="8">
         <v>916</v>
       </c>
@@ -48694,17 +48721,60 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="918" spans="1:7" s="8" customFormat="1"/>
-    <row r="919" spans="1:7" s="8" customFormat="1"/>
-    <row r="920" spans="1:7" s="8" customFormat="1"/>
-    <row r="921" spans="1:7" s="8" customFormat="1"/>
-    <row r="922" spans="1:7" s="8" customFormat="1"/>
-    <row r="929" spans="4:8">
-      <c r="D929" s="8"/>
-      <c r="E929" s="10"/>
-      <c r="F929" s="8"/>
-      <c r="G929" s="8"/>
-      <c r="H929" s="10"/>
+    <row r="918" spans="1:8" s="8" customFormat="1">
+      <c r="A918" s="8">
+        <v>917</v>
+      </c>
+      <c r="B918" s="8">
+        <v>369</v>
+      </c>
+      <c r="C918" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D918" s="15" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E918" s="14">
+        <v>2</v>
+      </c>
+      <c r="F918" s="14">
+        <v>1</v>
+      </c>
+      <c r="G918" s="15" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" s="8" customFormat="1">
+      <c r="A919" s="8">
+        <v>918</v>
+      </c>
+      <c r="B919" s="8">
+        <v>369</v>
+      </c>
+      <c r="C919" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D919" s="15" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E919" s="14">
+        <v>5</v>
+      </c>
+      <c r="F919" s="14">
+        <v>2</v>
+      </c>
+      <c r="G919" s="15" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" s="8" customFormat="1"/>
+    <row r="921" spans="1:8" s="8" customFormat="1"/>
+    <row r="928" spans="1:8">
+      <c r="D928" s="8"/>
+      <c r="E928" s="10"/>
+      <c r="F928" s="8"/>
+      <c r="G928" s="8"/>
+      <c r="H928" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="2032">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9403,6 +9403,10 @@
   </si>
   <si>
     <t>jyfl_mfcj_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10258,7 +10262,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A451" sqref="A451"/>
     </sheetView>
@@ -14955,11 +14959,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O348"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D328" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A346" sqref="A346"/>
+      <selection pane="bottomRight" activeCell="J324" sqref="J324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -25930,7 +25934,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>1158</v>
+        <v>2031</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26733,10 +26737,10 @@
   <dimension ref="A1:I928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C892" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C803" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B915" sqref="B915"/>
+      <selection pane="bottomRight" activeCell="A822" sqref="A822:XFD822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="2040">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9407,6 +9407,51 @@
   </si>
   <si>
     <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_class_hqjnh_046_nor_hllb</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包（欢乐捕鱼）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021年1月18日23:59:59结束</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9662,7 +9707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9983,6 +10028,12 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14957,13 +15008,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O348"/>
+  <dimension ref="A1:O350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I298" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I331" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J324" sqref="J324"/>
+      <selection pane="bottomRight" activeCell="M350" sqref="M350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26723,6 +26774,74 @@
         <v>1838</v>
       </c>
     </row>
+    <row r="349" spans="1:12" s="83" customFormat="1">
+      <c r="A349" s="81">
+        <v>348</v>
+      </c>
+      <c r="B349" s="81">
+        <v>1</v>
+      </c>
+      <c r="C349" s="81" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D349" s="81" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E349" s="81"/>
+      <c r="F349" s="81"/>
+      <c r="G349" s="81">
+        <v>370</v>
+      </c>
+      <c r="H349" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I349" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" s="82" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K349" s="81">
+        <v>1610407800</v>
+      </c>
+      <c r="L349" s="82" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" s="83" customFormat="1">
+      <c r="A350" s="81">
+        <v>349</v>
+      </c>
+      <c r="B350" s="81">
+        <v>1</v>
+      </c>
+      <c r="C350" s="81" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D350" s="81" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E350" s="81"/>
+      <c r="F350" s="81"/>
+      <c r="G350" s="81">
+        <v>371</v>
+      </c>
+      <c r="H350" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I350" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" s="82" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K350" s="81">
+        <v>1610407800</v>
+      </c>
+      <c r="L350" s="82" t="s">
+        <v>2039</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -26737,10 +26856,10 @@
   <dimension ref="A1:I928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C803" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C890" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A822" sqref="A822:XFD822"/>
+      <selection pane="bottomRight" activeCell="D924" sqref="D924:D925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48699,7 +48818,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2017</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="917" spans="1:8" s="8" customFormat="1">
@@ -48745,7 +48864,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="15" t="s">
-        <v>2017</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="919" spans="1:8" s="8" customFormat="1">
@@ -48771,8 +48890,52 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="920" spans="1:8" s="8" customFormat="1"/>
-    <row r="921" spans="1:8" s="8" customFormat="1"/>
+    <row r="920" spans="1:8" s="8" customFormat="1">
+      <c r="A920" s="8">
+        <v>919</v>
+      </c>
+      <c r="B920" s="118">
+        <v>370</v>
+      </c>
+      <c r="C920" s="119" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D920" s="119" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E920" s="118">
+        <v>5</v>
+      </c>
+      <c r="F920" s="118">
+        <v>1</v>
+      </c>
+      <c r="G920" s="119" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" s="8" customFormat="1">
+      <c r="A921" s="8">
+        <v>920</v>
+      </c>
+      <c r="B921" s="118">
+        <v>371</v>
+      </c>
+      <c r="C921" s="119" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D921" s="119" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E921" s="118">
+        <v>2</v>
+      </c>
+      <c r="F921" s="118">
+        <v>1</v>
+      </c>
+      <c r="G921" s="119" t="s">
+        <v>1743</v>
+      </c>
+    </row>
     <row r="928" spans="1:8">
       <c r="D928" s="8"/>
       <c r="E928" s="10"/>
@@ -48792,8 +48955,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="2040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2044">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9452,6 +9452,35 @@
       </rPr>
       <t>021年1月18日23:59:59结束</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_p_hljnh_046_hlfl_nor</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利（欢乐捕鱼）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利（冲金鸡）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9707,7 +9736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10028,12 +10057,13 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15008,13 +15038,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O350"/>
+  <dimension ref="A1:O352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I331" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M350" sqref="M350"/>
+      <selection pane="bottomRight" activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26774,71 +26804,139 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="349" spans="1:12" s="83" customFormat="1">
-      <c r="A349" s="81">
+    <row r="349" spans="1:12" s="120" customFormat="1">
+      <c r="A349" s="118">
         <v>348</v>
       </c>
-      <c r="B349" s="81">
-        <v>1</v>
-      </c>
-      <c r="C349" s="81" t="s">
+      <c r="B349" s="118">
+        <v>1</v>
+      </c>
+      <c r="C349" s="118" t="s">
         <v>2032</v>
       </c>
-      <c r="D349" s="81" t="s">
+      <c r="D349" s="118" t="s">
         <v>2034</v>
       </c>
-      <c r="E349" s="81"/>
-      <c r="F349" s="81"/>
-      <c r="G349" s="81">
+      <c r="E349" s="118"/>
+      <c r="F349" s="118"/>
+      <c r="G349" s="118">
         <v>370</v>
       </c>
-      <c r="H349" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I349" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J349" s="82" t="s">
+      <c r="H349" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I349" s="120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" s="119" t="s">
         <v>2038</v>
       </c>
-      <c r="K349" s="81">
+      <c r="K349" s="118">
         <v>1610407800</v>
       </c>
-      <c r="L349" s="82" t="s">
+      <c r="L349" s="119" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="350" spans="1:12" s="83" customFormat="1">
-      <c r="A350" s="81">
+    <row r="350" spans="1:12" s="120" customFormat="1">
+      <c r="A350" s="118">
         <v>349</v>
       </c>
-      <c r="B350" s="81">
-        <v>1</v>
-      </c>
-      <c r="C350" s="81" t="s">
+      <c r="B350" s="118">
+        <v>1</v>
+      </c>
+      <c r="C350" s="118" t="s">
         <v>2033</v>
       </c>
-      <c r="D350" s="81" t="s">
+      <c r="D350" s="118" t="s">
         <v>2035</v>
       </c>
-      <c r="E350" s="81"/>
-      <c r="F350" s="81"/>
-      <c r="G350" s="81">
+      <c r="E350" s="118"/>
+      <c r="F350" s="118"/>
+      <c r="G350" s="118">
         <v>371</v>
       </c>
-      <c r="H350" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I350" s="83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J350" s="82" t="s">
+      <c r="H350" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I350" s="120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" s="119" t="s">
         <v>2038</v>
       </c>
-      <c r="K350" s="81">
+      <c r="K350" s="118">
         <v>1610407800</v>
       </c>
-      <c r="L350" s="82" t="s">
+      <c r="L350" s="119" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" s="120" customFormat="1">
+      <c r="A351" s="118">
+        <v>350</v>
+      </c>
+      <c r="B351" s="118">
+        <v>1</v>
+      </c>
+      <c r="C351" s="119" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D351" s="119" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E351" s="118"/>
+      <c r="F351" s="118"/>
+      <c r="G351" s="118">
+        <v>372</v>
+      </c>
+      <c r="H351" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I351" s="120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J351" s="119" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K351" s="118">
+        <v>1610380800</v>
+      </c>
+      <c r="L351" s="119" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" s="120" customFormat="1">
+      <c r="A352" s="118">
+        <v>351</v>
+      </c>
+      <c r="B352" s="118">
+        <v>1</v>
+      </c>
+      <c r="C352" s="119" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D352" s="119" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E352" s="118"/>
+      <c r="F352" s="118"/>
+      <c r="G352" s="118">
+        <v>373</v>
+      </c>
+      <c r="H352" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I352" s="120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J352" s="119" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K352" s="118">
+        <v>1610380800</v>
+      </c>
+      <c r="L352" s="119" t="s">
         <v>2039</v>
       </c>
     </row>
@@ -26859,7 +26957,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C890" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D924" sqref="D924:D925"/>
+      <selection pane="bottomRight" activeCell="D926" sqref="D926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48894,22 +48992,22 @@
       <c r="A920" s="8">
         <v>919</v>
       </c>
-      <c r="B920" s="118">
+      <c r="B920" s="103">
         <v>370</v>
       </c>
-      <c r="C920" s="119" t="s">
+      <c r="C920" s="104" t="s">
         <v>1166</v>
       </c>
-      <c r="D920" s="119" t="s">
+      <c r="D920" s="104" t="s">
         <v>1989</v>
       </c>
-      <c r="E920" s="118">
+      <c r="E920" s="103">
         <v>5</v>
       </c>
-      <c r="F920" s="118">
-        <v>1</v>
-      </c>
-      <c r="G920" s="119" t="s">
+      <c r="F920" s="103">
+        <v>1</v>
+      </c>
+      <c r="G920" s="104" t="s">
         <v>1806</v>
       </c>
     </row>
@@ -48917,22 +49015,68 @@
       <c r="A921" s="8">
         <v>920</v>
       </c>
-      <c r="B921" s="118">
+      <c r="B921" s="103">
         <v>371</v>
       </c>
-      <c r="C921" s="119" t="s">
+      <c r="C921" s="104" t="s">
         <v>1166</v>
       </c>
-      <c r="D921" s="119" t="s">
+      <c r="D921" s="104" t="s">
         <v>1989</v>
       </c>
-      <c r="E921" s="118">
-        <v>2</v>
-      </c>
-      <c r="F921" s="118">
-        <v>1</v>
-      </c>
-      <c r="G921" s="119" t="s">
+      <c r="E921" s="103">
+        <v>2</v>
+      </c>
+      <c r="F921" s="103">
+        <v>1</v>
+      </c>
+      <c r="G921" s="104" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8">
+      <c r="A922" s="8">
+        <v>921</v>
+      </c>
+      <c r="B922" s="103">
+        <v>372</v>
+      </c>
+      <c r="C922" s="104" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D922" s="104" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E922" s="103">
+        <v>5</v>
+      </c>
+      <c r="F922" s="103">
+        <v>1</v>
+      </c>
+      <c r="G922" s="104" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8">
+      <c r="A923" s="8">
+        <v>922</v>
+      </c>
+      <c r="B923" s="103">
+        <v>373</v>
+      </c>
+      <c r="C923" s="104" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D923" s="104" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E923" s="103">
+        <v>2</v>
+      </c>
+      <c r="F923" s="103">
+        <v>1</v>
+      </c>
+      <c r="G923" s="104" t="s">
         <v>1743</v>
       </c>
     </row>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2043">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8867,10 +8867,6 @@
   </si>
   <si>
     <t>非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年11月30日23:59:59结束</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -11550,7 +11546,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11586,7 +11582,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11725,7 +11721,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14872,10 +14868,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="27" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C429" s="3">
         <v>344</v>
@@ -14883,10 +14879,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B430" s="27" t="s">
         <v>1958</v>
-      </c>
-      <c r="B430" s="27" t="s">
-        <v>1959</v>
       </c>
       <c r="C430" s="3">
         <v>345</v>
@@ -14894,10 +14890,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C432" s="3">
         <v>346</v>
@@ -14905,10 +14901,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="27" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C434" s="3">
         <v>347</v>
@@ -14916,10 +14912,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1947</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1948</v>
       </c>
       <c r="C435" s="3">
         <v>348</v>
@@ -14927,10 +14923,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="27" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B437" s="27" t="s">
         <v>1963</v>
-      </c>
-      <c r="B437" s="27" t="s">
-        <v>1964</v>
       </c>
       <c r="C437" s="3">
         <v>351</v>
@@ -14938,10 +14934,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1965</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1966</v>
       </c>
       <c r="C438" s="3">
         <v>352</v>
@@ -14949,10 +14945,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="27" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B440" s="27" t="s">
         <v>1974</v>
-      </c>
-      <c r="B440" s="27" t="s">
-        <v>1975</v>
       </c>
       <c r="C440" s="3">
         <v>353</v>
@@ -14960,10 +14956,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>1981</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>1982</v>
       </c>
       <c r="C442" s="3">
         <v>354</v>
@@ -14971,10 +14967,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1986</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>1987</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -14986,10 +14982,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="27" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>2015</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>2016</v>
       </c>
       <c r="C446" s="3">
         <v>368</v>
@@ -14997,10 +14993,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="79" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B448" s="27" t="s">
         <v>2023</v>
-      </c>
-      <c r="B448" s="27" t="s">
-        <v>2024</v>
       </c>
       <c r="C448" s="3">
         <v>356</v>
@@ -15008,10 +15004,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="79" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B449" s="27" t="s">
         <v>2025</v>
-      </c>
-      <c r="B449" s="27" t="s">
-        <v>2026</v>
       </c>
       <c r="C449" s="3">
         <v>360</v>
@@ -15019,10 +15015,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C451" s="3">
         <v>369</v>
@@ -15041,10 +15037,10 @@
   <dimension ref="A1:O352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D334" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G331" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D364" sqref="D364"/>
+      <selection pane="bottomRight" activeCell="J356" sqref="J356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -21641,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>801</v>
@@ -24975,7 +24971,7 @@
         <v>1856</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -25358,7 +25354,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1686</v>
@@ -26015,7 +26011,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26256,7 +26252,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D332" s="101" t="s">
         <v>1836</v>
@@ -26378,8 +26374,8 @@
       <c r="K335" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L335" s="16" t="s">
-        <v>1906</v>
+      <c r="L335" s="119" t="s">
+        <v>2038</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26390,10 +26386,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1907</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1908</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26407,13 +26403,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L336" s="16" t="s">
-        <v>1906</v>
+      <c r="L336" s="119" t="s">
+        <v>2038</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -26424,10 +26420,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26456,10 +26452,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26490,10 +26486,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -26522,10 +26518,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -26554,10 +26550,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -26586,10 +26582,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -26618,10 +26614,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -26650,10 +26646,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -26682,10 +26678,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -26714,10 +26710,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D346" s="92" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -26746,10 +26742,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D347" s="92" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -26778,7 +26774,7 @@
         <v>1</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D348" s="16" t="s">
         <v>1836</v>
@@ -26812,10 +26808,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="118" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D349" s="118" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E349" s="118"/>
       <c r="F349" s="118"/>
@@ -26829,13 +26825,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="119" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K349" s="118">
+        <v>1610409600</v>
+      </c>
+      <c r="L349" s="119" t="s">
         <v>2038</v>
-      </c>
-      <c r="K349" s="118">
-        <v>1610407800</v>
-      </c>
-      <c r="L349" s="119" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="120" customFormat="1">
@@ -26846,10 +26842,10 @@
         <v>1</v>
       </c>
       <c r="C350" s="118" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D350" s="118" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E350" s="118"/>
       <c r="F350" s="118"/>
@@ -26863,13 +26859,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="119" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K350" s="118">
+        <v>1610409600</v>
+      </c>
+      <c r="L350" s="119" t="s">
         <v>2038</v>
-      </c>
-      <c r="K350" s="118">
-        <v>1610407800</v>
-      </c>
-      <c r="L350" s="119" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="120" customFormat="1">
@@ -26880,10 +26876,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="119" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D351" s="119" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E351" s="118"/>
       <c r="F351" s="118"/>
@@ -26897,13 +26893,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="119" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="K351" s="118">
         <v>1610380800</v>
       </c>
       <c r="L351" s="119" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="120" customFormat="1">
@@ -26914,10 +26910,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="119" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D352" s="119" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E352" s="118"/>
       <c r="F352" s="118"/>
@@ -26931,13 +26927,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="119" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="K352" s="118">
         <v>1610380800</v>
       </c>
       <c r="L352" s="119" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
   </sheetData>
@@ -29154,7 +29150,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30452,7 +30448,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -30461,7 +30457,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -31144,7 +31140,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -31576,7 +31572,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -41081,7 +41077,7 @@
         <v>1166</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -41231,7 +41227,7 @@
         <v>1166</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -41381,7 +41377,7 @@
         <v>1166</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41531,7 +41527,7 @@
         <v>1166</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -41681,7 +41677,7 @@
         <v>1166</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -41831,7 +41827,7 @@
         <v>1166</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -44437,7 +44433,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -44637,7 +44633,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -46178,7 +46174,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -46253,7 +46249,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46603,7 +46599,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -46728,7 +46724,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -46778,7 +46774,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -46903,7 +46899,7 @@
         <v>1043</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -46953,7 +46949,7 @@
         <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -47003,7 +46999,7 @@
         <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -47053,7 +47049,7 @@
         <v>1043</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -47153,7 +47149,7 @@
         <v>1043</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -47207,7 +47203,7 @@
         <v>1170</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -47216,7 +47212,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -47232,7 +47228,7 @@
         <v>1170</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -47241,7 +47237,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -47261,16 +47257,16 @@
         <v>1043</v>
       </c>
       <c r="D848" s="111" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E848" s="110">
+        <v>2</v>
+      </c>
+      <c r="F848" s="110">
+        <v>1</v>
+      </c>
+      <c r="G848" s="111" t="s">
         <v>1922</v>
-      </c>
-      <c r="E848" s="110">
-        <v>2</v>
-      </c>
-      <c r="F848" s="110">
-        <v>1</v>
-      </c>
-      <c r="G848" s="111" t="s">
-        <v>1923</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -47295,7 +47291,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="111" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47311,7 +47307,7 @@
         <v>1043</v>
       </c>
       <c r="D850" s="111" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E850" s="110">
         <v>2</v>
@@ -47345,7 +47341,7 @@
         <v>2</v>
       </c>
       <c r="G851" s="111" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -47361,7 +47357,7 @@
         <v>1043</v>
       </c>
       <c r="D852" s="111" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E852" s="110">
         <v>2</v>
@@ -47370,7 +47366,7 @@
         <v>3</v>
       </c>
       <c r="G852" s="111" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -47395,7 +47391,7 @@
         <v>3</v>
       </c>
       <c r="G853" s="111" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47411,7 +47407,7 @@
         <v>1043</v>
       </c>
       <c r="D854" s="110" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E854" s="110">
         <v>2</v>
@@ -47420,7 +47416,7 @@
         <v>4</v>
       </c>
       <c r="G854" s="111" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -47445,7 +47441,7 @@
         <v>4</v>
       </c>
       <c r="G855" s="111" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
@@ -47456,7 +47452,7 @@
         <v>343</v>
       </c>
       <c r="C856" s="53" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D856" s="9">
         <v>1</v>
@@ -47468,7 +47464,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -47479,10 +47475,10 @@
         <v>343</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D857" s="15" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -47491,7 +47487,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="110" customFormat="1">
@@ -47502,7 +47498,7 @@
         <v>343</v>
       </c>
       <c r="C858" s="53" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D858" s="9">
         <v>9</v>
@@ -47514,7 +47510,7 @@
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -47530,7 +47526,7 @@
         <v>1170</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -47539,7 +47535,7 @@
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -47555,7 +47551,7 @@
         <v>1170</v>
       </c>
       <c r="D860" s="15" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E860" s="14">
         <v>2</v>
@@ -47564,7 +47560,7 @@
         <v>3</v>
       </c>
       <c r="G860" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -47580,7 +47576,7 @@
         <v>1170</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -47589,7 +47585,7 @@
         <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -47605,7 +47601,7 @@
         <v>863</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -47655,7 +47651,7 @@
         <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -47705,7 +47701,7 @@
         <v>863</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -47755,7 +47751,7 @@
         <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -47805,7 +47801,7 @@
         <v>1166</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -47814,7 +47810,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -47830,7 +47826,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E871" s="9">
         <v>2</v>
@@ -47839,7 +47835,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="53" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -47855,7 +47851,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="53" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -47864,7 +47860,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -47878,7 +47874,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -47887,7 +47883,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -47901,7 +47897,7 @@
         <v>1170</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -47910,7 +47906,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -47924,7 +47920,7 @@
         <v>1166</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -47933,7 +47929,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -47956,7 +47952,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -47993,7 +47989,7 @@
         <v>1166</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E878" s="8">
         <v>5</v>
@@ -48002,7 +47998,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -48016,7 +48012,7 @@
         <v>1166</v>
       </c>
       <c r="D879" s="15" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -48025,7 +48021,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -48036,7 +48032,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D880" s="15" t="s">
         <v>1624</v>
@@ -48048,7 +48044,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -48073,7 +48069,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -48086,19 +48082,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D882" s="15" t="s">
         <v>1976</v>
       </c>
-      <c r="D882" s="15" t="s">
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1977</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1978</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -48123,7 +48119,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -48139,7 +48135,7 @@
         <v>1043</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -48173,7 +48169,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -48223,7 +48219,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -48239,7 +48235,7 @@
         <v>1166</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E888" s="14">
         <v>2</v>
@@ -48264,7 +48260,7 @@
         <v>1166</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -48273,7 +48269,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -48298,7 +48294,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48314,7 +48310,7 @@
         <v>1166</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48323,7 +48319,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48348,7 +48344,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48373,7 +48369,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48387,7 +48383,7 @@
         <v>1166</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48396,7 +48392,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48421,7 +48417,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48446,7 +48442,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48462,7 +48458,7 @@
         <v>1166</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48471,7 +48467,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48496,7 +48492,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48512,16 +48508,16 @@
         <v>1166</v>
       </c>
       <c r="D899" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E899" s="14">
+        <v>2</v>
+      </c>
+      <c r="F899" s="14">
+        <v>1</v>
+      </c>
+      <c r="G899" s="15" t="s">
         <v>1990</v>
-      </c>
-      <c r="E899" s="14">
-        <v>2</v>
-      </c>
-      <c r="F899" s="14">
-        <v>1</v>
-      </c>
-      <c r="G899" s="15" t="s">
-        <v>1991</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48546,7 +48542,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48562,16 +48558,16 @@
         <v>1166</v>
       </c>
       <c r="D901" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E901" s="14">
+        <v>2</v>
+      </c>
+      <c r="F901" s="14">
+        <v>1</v>
+      </c>
+      <c r="G901" s="15" t="s">
         <v>1990</v>
-      </c>
-      <c r="E901" s="14">
-        <v>2</v>
-      </c>
-      <c r="F901" s="14">
-        <v>1</v>
-      </c>
-      <c r="G901" s="15" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48594,7 +48590,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48617,7 +48613,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48631,16 +48627,16 @@
         <v>1166</v>
       </c>
       <c r="D904" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E904" s="14">
+        <v>2</v>
+      </c>
+      <c r="F904" s="14">
+        <v>1</v>
+      </c>
+      <c r="G904" s="15" t="s">
         <v>1990</v>
-      </c>
-      <c r="E904" s="14">
-        <v>2</v>
-      </c>
-      <c r="F904" s="14">
-        <v>1</v>
-      </c>
-      <c r="G904" s="15" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48663,7 +48659,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48686,7 +48682,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48700,16 +48696,16 @@
         <v>1166</v>
       </c>
       <c r="D907" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E907" s="14">
+        <v>2</v>
+      </c>
+      <c r="F907" s="14">
+        <v>1</v>
+      </c>
+      <c r="G907" s="15" t="s">
         <v>1990</v>
-      </c>
-      <c r="E907" s="14">
-        <v>2</v>
-      </c>
-      <c r="F907" s="14">
-        <v>1</v>
-      </c>
-      <c r="G907" s="15" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48732,7 +48728,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48746,7 +48742,7 @@
         <v>1166</v>
       </c>
       <c r="D909" s="15" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E909" s="14">
         <v>2</v>
@@ -48755,7 +48751,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48778,7 +48774,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48792,7 +48788,7 @@
         <v>1166</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -48801,7 +48797,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48824,7 +48820,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="913" spans="1:8" s="8" customFormat="1">
@@ -48847,7 +48843,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="914" spans="1:8" s="8" customFormat="1">
@@ -48870,7 +48866,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="915" spans="1:8" s="8" customFormat="1">
@@ -48893,7 +48889,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="916" spans="1:8" s="8" customFormat="1">
@@ -48907,7 +48903,7 @@
         <v>1166</v>
       </c>
       <c r="D916" s="15" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E916" s="14">
         <v>2</v>
@@ -48916,7 +48912,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="917" spans="1:8" s="8" customFormat="1">
@@ -48927,19 +48923,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="15" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D917" s="15" t="s">
         <v>2018</v>
       </c>
-      <c r="D917" s="15" t="s">
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
         <v>2019</v>
-      </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="918" spans="1:8" s="8" customFormat="1">
@@ -48953,7 +48949,7 @@
         <v>1166</v>
       </c>
       <c r="D918" s="15" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E918" s="14">
         <v>2</v>
@@ -48962,7 +48958,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="15" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="919" spans="1:8" s="8" customFormat="1">
@@ -48976,7 +48972,7 @@
         <v>1166</v>
       </c>
       <c r="D919" s="15" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E919" s="14">
         <v>5</v>
@@ -48985,7 +48981,7 @@
         <v>2</v>
       </c>
       <c r="G919" s="15" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="920" spans="1:8" s="8" customFormat="1">
@@ -48999,7 +48995,7 @@
         <v>1166</v>
       </c>
       <c r="D920" s="104" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E920" s="103">
         <v>5</v>
@@ -49022,7 +49018,7 @@
         <v>1166</v>
       </c>
       <c r="D921" s="104" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E921" s="103">
         <v>2</v>
@@ -49045,7 +49041,7 @@
         <v>1166</v>
       </c>
       <c r="D922" s="104" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E922" s="103">
         <v>5</v>
@@ -49068,7 +49064,7 @@
         <v>1166</v>
       </c>
       <c r="D923" s="104" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E923" s="103">
         <v>2</v>
@@ -49234,7 +49230,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
@@ -49257,7 +49253,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1750</v>
@@ -49286,7 +49282,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -49303,13 +49299,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -49326,13 +49322,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -49349,13 +49345,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E11">
         <v>2</v>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="2047">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9481,6 +9481,31 @@
   </si>
   <si>
     <t>欢乐福利（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip10_email_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10邮件权限</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10341,11 +10366,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q451"/>
+  <dimension ref="A1:Q453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A451" sqref="A451"/>
+      <selection pane="bottomLeft" activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15028,6 +15053,17 @@
         <v>369</v>
       </c>
     </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="27" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B453" s="27" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C453" s="3">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15040,11 +15076,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D364" sqref="D364"/>
+      <selection pane="bottomRight" activeCell="D342" sqref="D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26953,11 +26989,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I928"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C890" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D926" sqref="D926"/>
+      <selection pane="bottomRight" activeCell="A925" sqref="A925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49078,6 +49114,29 @@
       </c>
       <c r="G923" s="104" t="s">
         <v>1743</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" s="8" customFormat="1">
+      <c r="A924" s="8">
+        <v>923</v>
+      </c>
+      <c r="B924" s="8">
+        <v>374</v>
+      </c>
+      <c r="C924" s="15" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D924" s="15" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E924" s="14">
+        <v>5</v>
+      </c>
+      <c r="F924" s="14">
+        <v>1</v>
+      </c>
+      <c r="G924" s="15" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="928" spans="1:8">

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="2046">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9477,6 +9477,31 @@
   </si>
   <si>
     <t>欢乐福利（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip10_email_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10邮件权限</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10337,11 +10362,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q451"/>
+  <dimension ref="A1:Q453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A451" sqref="A451"/>
+      <selection pane="bottomLeft" activeCell="B453" sqref="B453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15024,6 +15049,17 @@
         <v>369</v>
       </c>
     </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="27" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B453" s="27" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C453" s="3">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15036,11 +15072,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G331" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D331" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J356" sqref="J356"/>
+      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26949,11 +26985,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I928"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C890" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D926" sqref="D926"/>
+      <selection pane="bottomRight" activeCell="F909" sqref="F909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49074,6 +49110,29 @@
       </c>
       <c r="G923" s="104" t="s">
         <v>1743</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" s="8" customFormat="1">
+      <c r="A924" s="8">
+        <v>923</v>
+      </c>
+      <c r="B924" s="8">
+        <v>374</v>
+      </c>
+      <c r="C924" s="15" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D924" s="15" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E924" s="14">
+        <v>5</v>
+      </c>
+      <c r="F924" s="14">
+        <v>1</v>
+      </c>
+      <c r="G924" s="15" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="928" spans="1:8">

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="2046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="2047">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9502,6 +9502,10 @@
   </si>
   <si>
     <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级10</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -26986,10 +26990,10 @@
   <dimension ref="A1:I928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C890" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C893" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F909" sqref="F909"/>
+      <selection pane="bottomRight" activeCell="A926" sqref="A926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49133,6 +49137,29 @@
       </c>
       <c r="G924" s="15" t="s">
         <v>1990</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" s="8" customFormat="1">
+      <c r="A925" s="8">
+        <v>924</v>
+      </c>
+      <c r="B925" s="8">
+        <v>374</v>
+      </c>
+      <c r="C925" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D925" s="15">
+        <v>10</v>
+      </c>
+      <c r="E925" s="14">
+        <v>2</v>
+      </c>
+      <c r="F925" s="14">
+        <v>1</v>
+      </c>
+      <c r="G925" s="15" t="s">
+        <v>2046</v>
       </c>
     </row>
     <row r="928" spans="1:8">

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="2046">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9502,10 +9502,6 @@
   </si>
   <si>
     <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP等级10</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -26987,13 +26983,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I928"/>
+  <dimension ref="A1:I927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C893" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A926" sqref="A926"/>
+      <selection pane="bottomRight" activeCell="D916" sqref="D916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49139,35 +49135,12 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="925" spans="1:8" s="8" customFormat="1">
-      <c r="A925" s="8">
-        <v>924</v>
-      </c>
-      <c r="B925" s="8">
-        <v>374</v>
-      </c>
-      <c r="C925" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D925" s="15">
-        <v>10</v>
-      </c>
-      <c r="E925" s="14">
-        <v>2</v>
-      </c>
-      <c r="F925" s="14">
-        <v>1</v>
-      </c>
-      <c r="G925" s="15" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="928" spans="1:8">
-      <c r="D928" s="8"/>
-      <c r="E928" s="10"/>
-      <c r="F928" s="8"/>
-      <c r="G928" s="8"/>
-      <c r="H928" s="10"/>
+    <row r="927" spans="1:8">
+      <c r="D927" s="8"/>
+      <c r="E927" s="10"/>
+      <c r="F927" s="8"/>
+      <c r="G927" s="8"/>
+      <c r="H927" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="2046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="2056">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9190,14 +9190,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>not_cpl_jjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是新用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9350,10 +9342,6 @@
   </si>
   <si>
     <t>"vivo","xiaomi","yyb_hlttby",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9502,6 +9490,58 @@
   </si>
   <si>
     <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_cpl_jjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼救济金权限（官方-cps-30000 ）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼救济金权限（cpl-10000 ）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡救济金权限（官方-cps-30000 ）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡救济金权限（cpl-10000 ）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于捕鱼CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_cjj_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10362,11 +10402,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q453"/>
+  <dimension ref="A1:Q458"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B453" sqref="B453"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14981,10 +15021,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="3" t="s">
-        <v>1980</v>
+        <v>2043</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1981</v>
+        <v>2045</v>
       </c>
       <c r="C442" s="3">
         <v>354</v>
@@ -14992,10 +15032,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -15007,10 +15047,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="27" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B446" s="27" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C446" s="3">
         <v>368</v>
@@ -15018,10 +15058,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="79" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B448" s="27" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C448" s="3">
         <v>356</v>
@@ -15029,10 +15069,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="79" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B449" s="27" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C449" s="3">
         <v>360</v>
@@ -15040,10 +15080,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="3" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="C451" s="3">
         <v>369</v>
@@ -15051,13 +15091,57 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="B453" s="27" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="C453" s="3">
         <v>374</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="27" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B455" s="27" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C455" s="3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="27" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B456" s="27" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C456" s="3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="27" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B457" s="27" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C457" s="3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="27" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B458" s="27" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C458" s="3">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -26047,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26288,7 +26372,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D332" s="101" t="s">
         <v>1836</v>
@@ -26411,7 +26495,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="119" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26439,13 +26523,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
       <c r="L336" s="119" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -26522,10 +26606,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -26554,10 +26638,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -26586,10 +26670,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -26618,10 +26702,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -26650,10 +26734,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -26682,10 +26766,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -26714,10 +26798,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -26746,10 +26830,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D346" s="92" t="s">
         <v>2003</v>
-      </c>
-      <c r="D346" s="92" t="s">
-        <v>2005</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -26778,10 +26862,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D347" s="92" t="s">
         <v>2004</v>
-      </c>
-      <c r="D347" s="92" t="s">
-        <v>2006</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -26810,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D348" s="16" t="s">
         <v>1836</v>
@@ -26844,10 +26928,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="118" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="D349" s="118" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="E349" s="118"/>
       <c r="F349" s="118"/>
@@ -26861,13 +26945,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="119" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="K349" s="118">
         <v>1610409600</v>
       </c>
       <c r="L349" s="119" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="120" customFormat="1">
@@ -26878,10 +26962,10 @@
         <v>1</v>
       </c>
       <c r="C350" s="118" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="D350" s="118" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="E350" s="118"/>
       <c r="F350" s="118"/>
@@ -26895,13 +26979,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="119" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="K350" s="118">
         <v>1610409600</v>
       </c>
       <c r="L350" s="119" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="120" customFormat="1">
@@ -26912,10 +26996,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="119" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="D351" s="119" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E351" s="118"/>
       <c r="F351" s="118"/>
@@ -26929,13 +27013,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="119" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="K351" s="118">
         <v>1610380800</v>
       </c>
       <c r="L351" s="119" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="120" customFormat="1">
@@ -26946,10 +27030,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="119" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D352" s="119" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="E352" s="118"/>
       <c r="F352" s="118"/>
@@ -26963,13 +27047,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="119" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="K352" s="118">
         <v>1610380800</v>
       </c>
       <c r="L352" s="119" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -26983,13 +27067,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I927"/>
+  <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C893" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C896" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D916" sqref="D916"/>
+      <selection pane="bottomRight" activeCell="B926" sqref="B926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -44469,7 +44553,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -46635,7 +46719,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -48205,7 +48289,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -48255,7 +48339,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -48296,7 +48380,7 @@
         <v>1166</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -48305,7 +48389,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -48330,7 +48414,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48346,7 +48430,7 @@
         <v>1166</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48355,7 +48439,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48380,7 +48464,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48405,7 +48489,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48419,7 +48503,7 @@
         <v>1166</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48428,7 +48512,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48453,7 +48537,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48478,7 +48562,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48494,7 +48578,7 @@
         <v>1166</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48503,7 +48587,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48528,7 +48612,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48544,7 +48628,7 @@
         <v>1166</v>
       </c>
       <c r="D899" s="15" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E899" s="14">
         <v>2</v>
@@ -48553,7 +48637,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="15" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48578,7 +48662,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48594,7 +48678,7 @@
         <v>1166</v>
       </c>
       <c r="D901" s="15" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E901" s="14">
         <v>2</v>
@@ -48603,7 +48687,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="15" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48626,7 +48710,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48649,7 +48733,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48663,7 +48747,7 @@
         <v>1166</v>
       </c>
       <c r="D904" s="15" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E904" s="14">
         <v>2</v>
@@ -48672,7 +48756,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="15" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48695,7 +48779,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48718,7 +48802,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48732,7 +48816,7 @@
         <v>1166</v>
       </c>
       <c r="D907" s="15" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E907" s="14">
         <v>2</v>
@@ -48741,7 +48825,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="15" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48764,7 +48848,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48778,16 +48862,16 @@
         <v>1166</v>
       </c>
       <c r="D909" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E909" s="14">
+        <v>2</v>
+      </c>
+      <c r="F909" s="14">
+        <v>1</v>
+      </c>
+      <c r="G909" s="15" t="s">
         <v>1988</v>
-      </c>
-      <c r="E909" s="14">
-        <v>2</v>
-      </c>
-      <c r="F909" s="14">
-        <v>1</v>
-      </c>
-      <c r="G909" s="15" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48810,7 +48894,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48824,7 +48908,7 @@
         <v>1166</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -48833,7 +48917,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48856,10 +48940,10 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="913" spans="1:8" s="8" customFormat="1">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" s="8" customFormat="1">
       <c r="A913" s="8">
         <v>912</v>
       </c>
@@ -48879,10 +48963,10 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="914" spans="1:8" s="8" customFormat="1">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" s="8" customFormat="1">
       <c r="A914" s="8">
         <v>913</v>
       </c>
@@ -48902,10 +48986,10 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="915" spans="1:8" s="8" customFormat="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" s="8" customFormat="1">
       <c r="A915" s="8">
         <v>914</v>
       </c>
@@ -48925,10 +49009,10 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="916" spans="1:8" s="8" customFormat="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" s="8" customFormat="1">
       <c r="A916" s="8">
         <v>915</v>
       </c>
@@ -48948,10 +49032,10 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="917" spans="1:8" s="8" customFormat="1">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" s="8" customFormat="1">
       <c r="A917" s="8">
         <v>916</v>
       </c>
@@ -48959,22 +49043,22 @@
         <v>368</v>
       </c>
       <c r="C917" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D917" s="15" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
         <v>2017</v>
       </c>
-      <c r="D917" s="15" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E917" s="14">
-        <v>2</v>
-      </c>
-      <c r="F917" s="14">
-        <v>2</v>
-      </c>
-      <c r="G917" s="15" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="918" spans="1:8" s="8" customFormat="1">
+    </row>
+    <row r="918" spans="1:7" s="8" customFormat="1">
       <c r="A918" s="8">
         <v>917</v>
       </c>
@@ -48985,7 +49069,7 @@
         <v>1166</v>
       </c>
       <c r="D918" s="15" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E918" s="14">
         <v>2</v>
@@ -48994,10 +49078,10 @@
         <v>1</v>
       </c>
       <c r="G918" s="15" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="919" spans="1:8" s="8" customFormat="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" s="8" customFormat="1">
       <c r="A919" s="8">
         <v>918</v>
       </c>
@@ -49008,7 +49092,7 @@
         <v>1166</v>
       </c>
       <c r="D919" s="15" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="E919" s="14">
         <v>5</v>
@@ -49017,10 +49101,10 @@
         <v>2</v>
       </c>
       <c r="G919" s="15" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="920" spans="1:8" s="8" customFormat="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" s="8" customFormat="1">
       <c r="A920" s="8">
         <v>919</v>
       </c>
@@ -49031,7 +49115,7 @@
         <v>1166</v>
       </c>
       <c r="D920" s="104" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E920" s="103">
         <v>5</v>
@@ -49043,7 +49127,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="921" spans="1:8" s="8" customFormat="1">
+    <row r="921" spans="1:7" s="8" customFormat="1">
       <c r="A921" s="8">
         <v>920</v>
       </c>
@@ -49054,7 +49138,7 @@
         <v>1166</v>
       </c>
       <c r="D921" s="104" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E921" s="103">
         <v>2</v>
@@ -49066,7 +49150,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:7">
       <c r="A922" s="8">
         <v>921</v>
       </c>
@@ -49077,7 +49161,7 @@
         <v>1166</v>
       </c>
       <c r="D922" s="104" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E922" s="103">
         <v>5</v>
@@ -49089,7 +49173,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:7">
       <c r="A923" s="8">
         <v>922</v>
       </c>
@@ -49100,7 +49184,7 @@
         <v>1166</v>
       </c>
       <c r="D923" s="104" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E923" s="103">
         <v>2</v>
@@ -49112,7 +49196,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="924" spans="1:8" s="8" customFormat="1">
+    <row r="924" spans="1:7" s="8" customFormat="1">
       <c r="A924" s="8">
         <v>923</v>
       </c>
@@ -49120,7 +49204,7 @@
         <v>374</v>
       </c>
       <c r="C924" s="15" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D924" s="15" t="s">
         <v>1931</v>
@@ -49132,15 +49216,123 @@
         <v>1</v>
       </c>
       <c r="G924" s="15" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="927" spans="1:8">
-      <c r="D927" s="8"/>
-      <c r="E927" s="10"/>
-      <c r="F927" s="8"/>
-      <c r="G927" s="8"/>
-      <c r="H927" s="10"/>
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" s="8" customFormat="1">
+      <c r="A925" s="8">
+        <v>924</v>
+      </c>
+      <c r="B925" s="8">
+        <v>375</v>
+      </c>
+      <c r="C925" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D925" s="15" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E925" s="14">
+        <v>2</v>
+      </c>
+      <c r="F925" s="14">
+        <v>1</v>
+      </c>
+      <c r="G925" s="15" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" s="8" customFormat="1">
+      <c r="A926" s="8">
+        <v>925</v>
+      </c>
+      <c r="B926" s="8">
+        <v>375</v>
+      </c>
+      <c r="C926" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D926" s="15" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E926" s="14">
+        <v>2</v>
+      </c>
+      <c r="F926" s="14">
+        <v>2</v>
+      </c>
+      <c r="G926" s="15" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" s="8" customFormat="1">
+      <c r="A927" s="8">
+        <v>926</v>
+      </c>
+      <c r="B927" s="8">
+        <v>376</v>
+      </c>
+      <c r="C927" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D927" s="15" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E927" s="14">
+        <v>2</v>
+      </c>
+      <c r="F927" s="14">
+        <v>1</v>
+      </c>
+      <c r="G927" s="15" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" s="8" customFormat="1">
+      <c r="A928" s="8">
+        <v>927</v>
+      </c>
+      <c r="B928" s="8">
+        <v>377</v>
+      </c>
+      <c r="C928" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D928" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E928" s="14">
+        <v>2</v>
+      </c>
+      <c r="F928" s="14">
+        <v>1</v>
+      </c>
+      <c r="G928" s="15" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" s="8" customFormat="1">
+      <c r="A929" s="8">
+        <v>928</v>
+      </c>
+      <c r="B929" s="8">
+        <v>378</v>
+      </c>
+      <c r="C929" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D929" s="15" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E929" s="14">
+        <v>2</v>
+      </c>
+      <c r="F929" s="14">
+        <v>1</v>
+      </c>
+      <c r="G929" s="15" t="s">
+        <v>2053</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -49154,8 +49346,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49289,7 +49481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
@@ -49312,7 +49504,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2021</v>
+        <v>1624</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1750</v>
@@ -49341,7 +49533,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -49358,13 +49550,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -49387,7 +49579,7 @@
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4753" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="2057">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9531,12 +9531,44 @@
     <t>VIP等级0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>actp_own_task_p_system_update</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大版本升级权限（CPS渠道屏蔽，除官方IOS渠道以外的IOS渠道屏蔽）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>systype</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9620,6 +9652,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -9756,7 +9794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -9779,12 +9817,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10112,6 +10159,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10391,9 +10447,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15136,13 +15192,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O352"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D331" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F331" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
+      <selection pane="bottomRight" activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27038,6 +27094,40 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="353" spans="1:12" s="120" customFormat="1">
+      <c r="A353" s="118">
+        <v>352</v>
+      </c>
+      <c r="B353" s="118">
+        <v>1</v>
+      </c>
+      <c r="C353" s="121" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D353" s="118" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E353" s="118"/>
+      <c r="F353" s="118"/>
+      <c r="G353" s="118">
+        <v>380</v>
+      </c>
+      <c r="H353" s="118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I353" s="120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J353" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="K353" s="118">
+        <v>0</v>
+      </c>
+      <c r="L353" s="122">
+        <v>44201</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -27049,13 +27139,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I931"/>
+  <dimension ref="A1:I935"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C896" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C905" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G932" sqref="G932"/>
+      <selection pane="bottomRight" activeCell="D938" sqref="D938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49360,6 +49450,98 @@
       </c>
       <c r="G931" s="15" t="s">
         <v>2048</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7">
+      <c r="A932" s="8">
+        <v>931</v>
+      </c>
+      <c r="B932" s="103">
+        <v>380</v>
+      </c>
+      <c r="C932" s="103" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D932" s="103" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E932" s="103">
+        <v>5</v>
+      </c>
+      <c r="F932" s="103">
+        <v>1</v>
+      </c>
+      <c r="G932" s="103" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" ht="16.5">
+      <c r="A933" s="8">
+        <v>932</v>
+      </c>
+      <c r="B933" s="103">
+        <v>380</v>
+      </c>
+      <c r="C933" s="103" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D933" s="123" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E933" s="103">
+        <v>2</v>
+      </c>
+      <c r="F933" s="103">
+        <v>1</v>
+      </c>
+      <c r="G933" s="103" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7">
+      <c r="A934" s="8">
+        <v>933</v>
+      </c>
+      <c r="B934" s="103">
+        <v>380</v>
+      </c>
+      <c r="C934" s="103" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D934" s="103" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E934" s="103">
+        <v>2</v>
+      </c>
+      <c r="F934" s="103">
+        <v>2</v>
+      </c>
+      <c r="G934" s="104" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7">
+      <c r="A935" s="8">
+        <v>934</v>
+      </c>
+      <c r="B935" s="103">
+        <v>380</v>
+      </c>
+      <c r="C935" s="103" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D935" s="104" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E935" s="103">
+        <v>2</v>
+      </c>
+      <c r="F935" s="103">
+        <v>2</v>
+      </c>
+      <c r="G935" s="103" t="s">
+        <v>2056</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.12/permission_server_config.xlsx
+++ b/config_1.12/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="2056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4766" uniqueCount="2062">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9542,6 +9542,43 @@
   </si>
   <si>
     <t>jjj_cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ljyjcflq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_vip_limit</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积赢金抽福利券（冲金鸡-VIP1）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于冲金鸡CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于冲金鸡光放</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于捕鱼CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10402,11 +10439,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q458"/>
+  <dimension ref="A1:Q460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A458" sqref="A458"/>
+      <selection pane="bottomLeft" activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15142,6 +15179,17 @@
       </c>
       <c r="C458" s="3">
         <v>378</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="27" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B460" s="27" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C460" s="3">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -27067,13 +27115,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I929"/>
+  <dimension ref="A1:I931"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C896" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B926" sqref="B926"/>
+      <selection pane="bottomRight" activeCell="G932" sqref="G932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49285,7 +49333,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="15" t="s">
-        <v>2053</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -49308,7 +49356,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="15" t="s">
-        <v>2052</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="929" spans="1:7" s="8" customFormat="1">
@@ -49331,7 +49379,53 @@
         <v>1</v>
       </c>
       <c r="G929" s="15" t="s">
-        <v>2053</v>
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" s="8" customFormat="1">
+      <c r="A930" s="8">
+        <v>929</v>
+      </c>
+      <c r="B930" s="8">
+        <v>379</v>
+      </c>
+      <c r="C930" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D930" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E930" s="14">
+        <v>2</v>
+      </c>
+      <c r="F930" s="14">
+        <v>1</v>
+      </c>
+      <c r="G930" s="15" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" s="8" customFormat="1">
+      <c r="A931" s="8">
+        <v>930</v>
+      </c>
+      <c r="B931" s="8">
+        <v>379</v>
+      </c>
+      <c r="C931" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D931" s="15">
+        <v>0</v>
+      </c>
+      <c r="E931" s="14">
+        <v>2</v>
+      </c>
+      <c r="F931" s="14">
+        <v>1</v>
+      </c>
+      <c r="G931" s="15" t="s">
+        <v>2061</v>
       </c>
     </row>
   </sheetData>
